--- a/FridayProject/Data.xlsx
+++ b/FridayProject/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>htttp://www.autotrader.co.uk</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>OY64HFL</t>
+  </si>
+  <si>
+    <t>YH54KYF</t>
+  </si>
+  <si>
+    <t>HD54LTF</t>
   </si>
 </sst>
 </file>
@@ -404,7 +419,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,12 +488,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>20640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>79053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
